--- a/biology/Zoologie/Hemeroplanes_triptolemus/Hemeroplanes_triptolemus.xlsx
+++ b/biology/Zoologie/Hemeroplanes_triptolemus/Hemeroplanes_triptolemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemeroplanes triptolemus est une espèce de lépidoptères (papillons) de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Dilophonotini et du genre Hemeroplanes.  C'est l'espèce type pour le genre. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure des ailes varie de 64 à 82 mm.
 			Face dorsale de la femelle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au Costa Rica, Belize, Mexique, Guatemala et probablement partout en Amérique centrale;  en Colombie, en Équateur, en Bolivie, en Argentine, au Venezuela et en Guyane.
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il y a au moins deux générations par an avec des pics de vols de janvier à février et de nouveau de juin à juillet.
 Les chenilles se nourrissent sur Mesechites trifida.</t>
@@ -608,9 +626,11 @@
           <t>Mimétisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille utilise une stratégie de mimétisme, prenant l'aspect, au niveau de sa partie antérieure, d'une tête de serpent, d'où son surnom de « chenille-serpent »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille utilise une stratégie de mimétisme, prenant l'aspect, au niveau de sa partie antérieure, d'une tête de serpent, d'où son surnom de « chenille-serpent ».
 </t>
         </is>
       </c>
@@ -639,13 +659,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Hemeroplanes triptolemus a été décrite par l'entomologiste hollandais Pieter Cramer en 1779, sous le nom initial de Sphinx triptolemus[2].
-La localité type est le Suriname.
-Synonymie
-Sphinx triptolemus Cramer, 1779 protonyme
-Calliomma triptolemus Walker, 1856 [3]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce Hemeroplanes triptolemus a été décrite par l'entomologiste hollandais Pieter Cramer en 1779, sous le nom initial de Sphinx triptolemus.
+La localité type est le Suriname.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hemeroplanes_triptolemus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemeroplanes_triptolemus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sphinx triptolemus Cramer, 1779 protonyme
+Calliomma triptolemus Walker, 1856 
 Madoryx triptolemus Boisduval</t>
         </is>
       </c>
